--- a/Hogeschool/Graduaat/1GRPOD/Laptop/Data & SQL/OefeningenNormalisatie.xlsx
+++ b/Hogeschool/Graduaat/1GRPOD/Laptop/Data & SQL/OefeningenNormalisatie.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduaat\1GRPOD\Data &amp; SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITSchool\Schooloedeningen\Hogeschool\Graduaat\1GRPOD\Laptop\Data &amp; SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A9ED96-E9FA-4D0E-BF11-1D843AFC76DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BAB07C-1CA8-4CE5-A063-B65484CF5F2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12864" yWindow="3144" windowWidth="17280" windowHeight="8964" xr2:uid="{657D14AC-4D18-491E-8D4A-15F6BCC555C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{657D14AC-4D18-491E-8D4A-15F6BCC555C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Oef2" sheetId="1" r:id="rId1"/>
+    <sheet name="Oef1" sheetId="2" r:id="rId1"/>
+    <sheet name="Oef2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
   <si>
     <t>NV0</t>
   </si>
@@ -82,13 +83,34 @@
   </si>
   <si>
     <t>Welke niet-sleutel attributen horen bij slechts een deel van de samengestelde primary key?</t>
+  </si>
+  <si>
+    <t>NV3</t>
+  </si>
+  <si>
+    <t>Artikelnummer</t>
+  </si>
+  <si>
+    <t>Beschrijving</t>
+  </si>
+  <si>
+    <t>PrijsPerEenheid</t>
+  </si>
+  <si>
+    <t>Aantal</t>
+  </si>
+  <si>
+    <t>Korting</t>
+  </si>
+  <si>
+    <t>Totaal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +126,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,16 +156,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -147,7 +184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,21 +479,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A95161-4B39-4799-AA51-EA52F6CA7F20}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B758DEFE-4470-4F9E-B158-4BA47DCAF2E7}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A95161-4B39-4799-AA51-EA52F6CA7F20}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +578,11 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -483,8 +598,14 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -494,8 +615,11 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -505,13 +629,16 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -527,8 +654,14 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -544,8 +677,14 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -555,13 +694,16 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -571,18 +713,30 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -590,7 +744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>15</v>
       </c>
